--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value56.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value56.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.155556581569319</v>
+        <v>1.768105626106262</v>
       </c>
       <c r="B1">
-        <v>2.526776135801743</v>
+        <v>3.437867403030396</v>
       </c>
       <c r="C1">
-        <v>2.813732367403582</v>
+        <v>3.849934816360474</v>
       </c>
       <c r="D1">
-        <v>1.890599358256806</v>
+        <v>3.592831373214722</v>
       </c>
       <c r="E1">
-        <v>0.8408755323287964</v>
+        <v>1.033917307853699</v>
       </c>
     </row>
   </sheetData>
